--- a/Testing/TestData/test_extraction.xlsx
+++ b/Testing/TestData/test_extraction.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZbwTechniker\6tSemester\Diplom Abschlussarbeit\Entwicklung\Realisierung\Offerten-Automatisierung\Offerten-Automatisierung\Testing\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350A0EE1-A2C7-429D-B02C-F4A4805E2200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4AD77A-AE94-4D21-AEB2-1F820BD0B2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2700" windowWidth="28800" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="4545" windowWidth="28800" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="BatchInformation">Tabelle1!$D$27</definedName>
+    <definedName name="EmptyCell">Tabelle1!$E$1</definedName>
     <definedName name="LitreAmount">Tabelle1!$M$23</definedName>
-    <definedName name="MachineType">Tabelle1!$A$1</definedName>
+    <definedName name="NamedCell1">Tabelle1!$A$1</definedName>
     <definedName name="TotalPrice">Tabelle1!$I$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,10 +34,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Press</t>
+    <t>Parallel</t>
   </si>
   <si>
-    <t>Parallel</t>
+    <t>ExpectedValue1</t>
   </si>
 </sst>
 </file>
@@ -357,7 +358,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +368,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -382,7 +383,7 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
